--- a/sheet05/data/Contest1ParallelPerformanceData.xlsx
+++ b/sheet05/data/Contest1ParallelPerformanceData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSim-WS23-24\sheet05\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9447C0-E53D-4177-A893-E012BEECDE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281F5D82-1E4D-42B7-A6BB-D1F42B92EC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>1000 Iterations Rayleigh-Taylor 3D</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Threads [#]</t>
   </si>
@@ -58,12 +53,36 @@
   <si>
     <t>Speedup</t>
   </si>
+  <si>
+    <t>1000 Iterations Rayleigh-Taylor 2D</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>MUPs</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Simulations 20.01.2024, branch: 84-parallel-v1</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +90,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -88,13 +127,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1833,6 +2045,2806 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Time Comparison : Contest1 / Rayleigh-Taylor-Instability 2D (10,000 Particles)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$34:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.875999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68DD-47ED-9132-86614BA61CA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$34:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.127000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68DD-47ED-9132-86614BA61CA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$34:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4160000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68DD-47ED-9132-86614BA61CA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$34:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.7146666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9673333333333338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1153333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4286666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3353333333333335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7223333333333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3093333333333339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.933666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-68DD-47ED-9132-86614BA61CA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="135129311"/>
+        <c:axId val="419537823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135129311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419537823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419537823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135129311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MUP/s Comparison : Contest1 / Rayleigh-Taylor-Instability 2D (10,000 Particles)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$34:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2670940.1709400001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3368137.4200070002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4746084.480304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5892751.9151440002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7047216.3495420003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7358351.7292130003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7552870.0906339996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5221932.114883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1874414.2455480001</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>278737.87490200001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36D1-427A-9937-AF9B63F6E7BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$34:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2701972.4398810002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3367003.3670029999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4728132.3877069997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5945303.2104639998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6910850.034554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7513148.0090159997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7751937.9844960002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5446623.0936820004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5017561.4651279999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>987459.26730499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36D1-427A-9937-AF9B63F6E7BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$34:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2703433.3603679999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3374957.8130270001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4708097.9284370001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6009615.3846150003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7042253.5211270005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7598784.1945289997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7668711.6564419996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2264492.7536229999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1162790.6976739999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>926097.42544899997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-36D1-427A-9937-AF9B63F6E7BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$34:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2692115.3237296664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3370032.8666790002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4727438.2654826669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5949223.5034076674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7000106.6350743333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7490094.6442526663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7657839.9105240004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4311015.987396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2684922.1361166663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>730764.85588533338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-36D1-427A-9937-AF9B63F6E7BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357084383"/>
+        <c:axId val="419199439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357084383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419199439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419199439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Million Molecule Updates</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357084383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Speedup Comparison : Contest1 / Rayleigh-Taylor-Instability 2D (10,000 Particles)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Simulation of 1000 Iterations on CoolMUC</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$34:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2610306500505222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7769340294257236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.206246317030053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6384778012684991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7549668874172188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8277945619335347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9550913838120105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70178069353327088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1043594603634742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDED-4FAE-BD43-60DE53B5E6AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$34:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.246127946127946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7498817966903071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2003567181926278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5577055977885279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7806160781367395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8689922480620154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0157952069716774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8569994982438534</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36545867482966327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDED-4FAE-BD43-60DE53B5E6AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$34:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.248396895038812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7415254237288134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2229567307692308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6049295774647887</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8107902735562309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8366564417177913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83763586956521729</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43011627906976746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34256343767364328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDED-4FAE-BD43-60DE53B5E6AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$L$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$34:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$34:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25185183040576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7561137499482813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2098532553306369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6003709921739389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7821244130367297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8444810839044474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6028408201163018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9962988236156306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27079385762226021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDED-4FAE-BD43-60DE53B5E6AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357084383"/>
+        <c:axId val="419199439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357084383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>#Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419199439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="419199439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [Time(1 Thread)/Time(n Threads)]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357084383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1913,6 +4925,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2430,6 +5562,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2985,16 +7665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>538843</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>295956</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>10206</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>159885</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173491</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3016,6 +7696,116 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>606287</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>188429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>822857</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>168929</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC32EAC-6C9E-D1E1-B448-0A0D03D4B6B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>836129</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>547874</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>175969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AD44EF-2CCE-DA1D-1ED8-0AAD3A91073F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302295</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>180525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F73CB54-6498-4D1A-9394-97017FA7FE19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3287,52 +8077,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="3" max="4" width="13.3046875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3356,11 +8156,11 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <f>$E$5/E5</f>
+        <f t="shared" ref="I5:I13" si="0">$E$5/E5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -3380,15 +8180,15 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H13" si="0">$C$5/C6</f>
+        <f t="shared" ref="H6:H10" si="1">$C$5/C6</f>
         <v>1.1570277529095792</v>
       </c>
       <c r="I6">
-        <f>$E$5/E6</f>
+        <f t="shared" si="0"/>
         <v>1.2215770171149145</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3408,15 +8208,15 @@
         <v>4</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.6987381703470033</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>1.6987381703470033</v>
-      </c>
-      <c r="I7">
-        <f>$E$5/E7</f>
         <v>1.854756380510441</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>8</v>
       </c>
@@ -3436,15 +8236,15 @@
         <v>8</v>
       </c>
       <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.2673684210526313</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>2.2673684210526313</v>
-      </c>
-      <c r="I8">
-        <f>$E$5/E8</f>
         <v>2.3415348564733449</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>16</v>
       </c>
@@ -3464,15 +8264,15 @@
         <v>16</v>
       </c>
       <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.619548872180451</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v>1.619548872180451</v>
-      </c>
-      <c r="I9">
-        <f>$E$5/E9</f>
         <v>2.6452680344142951</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>28</v>
       </c>
@@ -3492,15 +8292,15 @@
         <v>28</v>
       </c>
       <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.39206406989443027</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.39206406989443027</v>
-      </c>
-      <c r="I10">
-        <f>$E$5/E10</f>
         <v>2.8570407433881342</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>56</v>
       </c>
@@ -3514,11 +8314,11 @@
         <v>56</v>
       </c>
       <c r="I11">
-        <f>$E$5/E11</f>
+        <f t="shared" si="0"/>
         <v>1.8686302010285181</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>72</v>
       </c>
@@ -3532,11 +8332,11 @@
         <v>72</v>
       </c>
       <c r="I12">
-        <f>$E$5/E12</f>
+        <f t="shared" si="0"/>
         <v>1.4749077490774907</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>96</v>
       </c>
@@ -3550,11 +8350,11 @@
         <v>96</v>
       </c>
       <c r="I13">
-        <f>$E$5/E13</f>
+        <f t="shared" si="0"/>
         <v>0.66649991662497921</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
@@ -3571,7 +8371,7 @@
         <v>2501876.4073049999</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2</v>
       </c>
@@ -3588,7 +8388,7 @@
         <v>3056234.7188260001</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>4</v>
       </c>
@@ -3605,7 +8405,7 @@
         <v>4640371.2296979995</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>8</v>
       </c>
@@ -3622,7 +8422,7 @@
         <v>5858230.8142940002</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>16</v>
       </c>
@@ -3639,7 +8439,7 @@
         <v>6618133.6863000002</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>28</v>
       </c>
@@ -3656,7 +8456,7 @@
         <v>7147962.8305930002</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>56</v>
       </c>
@@ -3669,7 +8469,7 @@
         <v>4675081.8139319997</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>72</v>
       </c>
@@ -3680,7 +8480,7 @@
         <v>5078720.1625189995</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>96</v>
       </c>
@@ -3693,7 +8493,566 @@
         <v>1667500.4168750001</v>
       </c>
     </row>
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.7440000000000002</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2670940.1709400001</v>
+      </c>
+      <c r="E34" s="5">
+        <f>C$34/C34</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3.7010000000000001</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2701972.4398810002</v>
+      </c>
+      <c r="H34" s="5">
+        <f>F$34/F34</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2703433.3603679999</v>
+      </c>
+      <c r="K34" s="5">
+        <f>I$34/I34</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="4">
+        <f>AVERAGE(C34,F34,I34)</f>
+        <v>3.7146666666666666</v>
+      </c>
+      <c r="M34" s="4">
+        <f>AVERAGE(D34,G34,J34)</f>
+        <v>2692115.3237296664</v>
+      </c>
+      <c r="N34" s="5">
+        <f>AVERAGE(E34,H34,K34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.9689999999999999</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3368137.4200070002</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" ref="E35:E43" si="2">C$34/C35</f>
+        <v>1.2610306500505222</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3367003.3670029999</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" ref="H35:H43" si="3">F$34/F35</f>
+        <v>1.246127946127946</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2.9630000000000001</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3374957.8130270001</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" ref="K35:K43" si="4">I$34/I35</f>
+        <v>1.248396895038812</v>
+      </c>
+      <c r="L35" s="4">
+        <f>AVERAGE(C35,F35,I35)</f>
+        <v>2.9673333333333338</v>
+      </c>
+      <c r="M35" s="4">
+        <f>AVERAGE(D35,G35,J35)</f>
+        <v>3370032.8666790002</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" ref="N35:N43" si="5">AVERAGE(E35,H35,K35)</f>
+        <v>1.25185183040576</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4746084.480304</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7769340294257236</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4728132.3877069997</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7498817966903071</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="J36" s="3">
+        <v>4708097.9284370001</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7415254237288134</v>
+      </c>
+      <c r="L36" s="4">
+        <f>AVERAGE(C36,F36,I36)</f>
+        <v>2.1153333333333335</v>
+      </c>
+      <c r="M36" s="4">
+        <f>AVERAGE(D36,G36,J36)</f>
+        <v>4727438.2654826669</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7561137499482813</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5892751.9151440002</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="2"/>
+        <v>2.206246317030053</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5945303.2104639998</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="3"/>
+        <v>2.2003567181926278</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="J37" s="3">
+        <v>6009615.3846150003</v>
+      </c>
+      <c r="K37" s="5">
+        <f t="shared" si="4"/>
+        <v>2.2229567307692308</v>
+      </c>
+      <c r="L37" s="4">
+        <f>AVERAGE(C37,F37,I37)</f>
+        <v>1.681</v>
+      </c>
+      <c r="M37" s="4">
+        <f>AVERAGE(D37,G37,J37)</f>
+        <v>5949223.5034076674</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="5"/>
+        <v>2.2098532553306369</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.419</v>
+      </c>
+      <c r="D38" s="3">
+        <v>7047216.3495420003</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6384778012684991</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6910850.034554</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5577055977885279</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="J38" s="3">
+        <v>7042253.5211270005</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="4"/>
+        <v>2.6049295774647887</v>
+      </c>
+      <c r="L38" s="4">
+        <f>AVERAGE(C38,F38,I38)</f>
+        <v>1.4286666666666665</v>
+      </c>
+      <c r="M38" s="4">
+        <f>AVERAGE(D38,G38,J38)</f>
+        <v>7000106.6350743333</v>
+      </c>
+      <c r="N38" s="5">
+        <f t="shared" si="5"/>
+        <v>2.6003709921739389</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.359</v>
+      </c>
+      <c r="D39" s="3">
+        <v>7358351.7292130003</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="2"/>
+        <v>2.7549668874172188</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.331</v>
+      </c>
+      <c r="G39" s="3">
+        <v>7513148.0090159997</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7806160781367395</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="J39" s="3">
+        <v>7598784.1945289997</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="4"/>
+        <v>2.8107902735562309</v>
+      </c>
+      <c r="L39" s="4">
+        <f>AVERAGE(C39,F39,I39)</f>
+        <v>1.3353333333333335</v>
+      </c>
+      <c r="M39" s="4">
+        <f>AVERAGE(D39,G39,J39)</f>
+        <v>7490094.6442526663</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="5"/>
+        <v>2.7821244130367297</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7552870.0906339996</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="2"/>
+        <v>2.8277945619335347</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="G40" s="3">
+        <v>7751937.9844960002</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="3"/>
+        <v>2.8689922480620154</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1.304</v>
+      </c>
+      <c r="J40" s="3">
+        <v>7668711.6564419996</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="4"/>
+        <v>2.8366564417177913</v>
+      </c>
+      <c r="L40" s="4">
+        <f>AVERAGE(C40,F40,I40)</f>
+        <v>1.306</v>
+      </c>
+      <c r="M40" s="4">
+        <f>AVERAGE(D40,G40,J40)</f>
+        <v>7657839.9105240004</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="5"/>
+        <v>2.8444810839044474</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>56</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.915</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5221932.114883</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="2"/>
+        <v>1.9550913838120105</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5446623.0936820004</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0157952069716774</v>
+      </c>
+      <c r="I41" s="2">
+        <v>4.4160000000000004</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2264492.7536229999</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="4"/>
+        <v>0.83763586956521729</v>
+      </c>
+      <c r="L41" s="4">
+        <f>AVERAGE(C41,F41,I41)</f>
+        <v>2.7223333333333337</v>
+      </c>
+      <c r="M41" s="4">
+        <f>AVERAGE(D41,G41,J41)</f>
+        <v>4311015.987396</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6028408201163018</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>72</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5.335</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1874414.2455480001</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="2"/>
+        <v>0.70178069353327088</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5017561.4651279999</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8569994982438534</v>
+      </c>
+      <c r="I42" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1162790.6976739999</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="4"/>
+        <v>0.43011627906976746</v>
+      </c>
+      <c r="L42" s="4">
+        <f>AVERAGE(C42,F42,I42)</f>
+        <v>5.3093333333333339</v>
+      </c>
+      <c r="M42" s="4">
+        <f>AVERAGE(D42,G42,J42)</f>
+        <v>2684922.1361166663</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="5"/>
+        <v>0.9962988236156306</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="11">
+        <v>96</v>
+      </c>
+      <c r="C43" s="6">
+        <v>35.875999999999998</v>
+      </c>
+      <c r="D43" s="7">
+        <v>278737.87490200001</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1043594603634742</v>
+      </c>
+      <c r="F43" s="6">
+        <v>10.127000000000001</v>
+      </c>
+      <c r="G43" s="7">
+        <v>987459.26730499999</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="3"/>
+        <v>0.36545867482966327</v>
+      </c>
+      <c r="I43" s="6">
+        <v>10.798</v>
+      </c>
+      <c r="J43" s="7">
+        <v>926097.42544899997</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="4"/>
+        <v>0.34256343767364328</v>
+      </c>
+      <c r="L43" s="7">
+        <f>AVERAGE(C43,F43,I43)</f>
+        <v>18.933666666666667</v>
+      </c>
+      <c r="M43" s="7">
+        <f>AVERAGE(D43,G43,J43)</f>
+        <v>730764.85588533338</v>
+      </c>
+      <c r="N43" s="8">
+        <f t="shared" si="5"/>
+        <v>0.27079385762226021</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="B30:N30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/sheet05/data/Contest1ParallelPerformanceData.xlsx
+++ b/sheet05/data/Contest1ParallelPerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSim-WS23-24\sheet05\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281F5D82-1E4D-42B7-A6BB-D1F42B92EC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798D2329-9760-4C03-A80A-D301ACB15685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -269,12 +269,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -282,6 +280,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,13 +305,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -8079,8 +8077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8495,553 +8493,553 @@
     </row>
     <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="12" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="12" t="s">
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="12" t="s">
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M33" s="23" t="s">
+      <c r="M33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="24" t="s">
+      <c r="N33" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
       <c r="C34" s="2">
         <v>3.7440000000000002</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>2670940.1709400001</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <f>C$34/C34</f>
         <v>1</v>
       </c>
       <c r="F34" s="2">
         <v>3.7010000000000001</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="1">
         <v>2701972.4398810002</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <f>F$34/F34</f>
         <v>1</v>
       </c>
       <c r="I34" s="2">
         <v>3.6989999999999998</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="1">
         <v>2703433.3603679999</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="3">
         <f>I$34/I34</f>
         <v>1</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34">
         <f>AVERAGE(C34,F34,I34)</f>
         <v>3.7146666666666666</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34">
         <f>AVERAGE(D34,G34,J34)</f>
         <v>2692115.3237296664</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="3">
         <f>AVERAGE(E34,H34,K34)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>2</v>
       </c>
       <c r="C35" s="2">
         <v>2.9689999999999999</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>3368137.4200070002</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <f t="shared" ref="E35:E43" si="2">C$34/C35</f>
         <v>1.2610306500505222</v>
       </c>
       <c r="F35" s="2">
         <v>2.97</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="1">
         <v>3367003.3670029999</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <f t="shared" ref="H35:H43" si="3">F$34/F35</f>
         <v>1.246127946127946</v>
       </c>
       <c r="I35" s="2">
         <v>2.9630000000000001</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="1">
         <v>3374957.8130270001</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="3">
         <f t="shared" ref="K35:K43" si="4">I$34/I35</f>
         <v>1.248396895038812</v>
       </c>
-      <c r="L35" s="4">
-        <f>AVERAGE(C35,F35,I35)</f>
+      <c r="L35">
+        <f t="shared" ref="L35:L43" si="5">AVERAGE(C35,F35,I35)</f>
         <v>2.9673333333333338</v>
       </c>
-      <c r="M35" s="4">
-        <f>AVERAGE(D35,G35,J35)</f>
+      <c r="M35">
+        <f t="shared" ref="M35:M43" si="6">AVERAGE(D35,G35,J35)</f>
         <v>3370032.8666790002</v>
       </c>
-      <c r="N35" s="5">
-        <f t="shared" ref="N35:N43" si="5">AVERAGE(E35,H35,K35)</f>
+      <c r="N35" s="3">
+        <f t="shared" ref="N35:N43" si="7">AVERAGE(E35,H35,K35)</f>
         <v>1.25185183040576</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>4</v>
       </c>
       <c r="C36" s="2">
         <v>2.1070000000000002</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>4746084.480304</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <f t="shared" si="2"/>
         <v>1.7769340294257236</v>
       </c>
       <c r="F36" s="2">
         <v>2.1150000000000002</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="1">
         <v>4728132.3877069997</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <f t="shared" si="3"/>
         <v>1.7498817966903071</v>
       </c>
       <c r="I36" s="2">
         <v>2.1240000000000001</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="1">
         <v>4708097.9284370001</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="3">
         <f t="shared" si="4"/>
         <v>1.7415254237288134</v>
       </c>
-      <c r="L36" s="4">
-        <f>AVERAGE(C36,F36,I36)</f>
+      <c r="L36">
+        <f t="shared" si="5"/>
         <v>2.1153333333333335</v>
       </c>
-      <c r="M36" s="4">
-        <f>AVERAGE(D36,G36,J36)</f>
+      <c r="M36">
+        <f t="shared" si="6"/>
         <v>4727438.2654826669</v>
       </c>
-      <c r="N36" s="5">
-        <f t="shared" si="5"/>
+      <c r="N36" s="3">
+        <f t="shared" si="7"/>
         <v>1.7561137499482813</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <v>8</v>
       </c>
       <c r="C37" s="2">
         <v>1.6970000000000001</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>5892751.9151440002</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <f t="shared" si="2"/>
         <v>2.206246317030053</v>
       </c>
       <c r="F37" s="2">
         <v>1.6819999999999999</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="1">
         <v>5945303.2104639998</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <f t="shared" si="3"/>
         <v>2.2003567181926278</v>
       </c>
       <c r="I37" s="2">
         <v>1.6639999999999999</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="1">
         <v>6009615.3846150003</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="3">
         <f t="shared" si="4"/>
         <v>2.2229567307692308</v>
       </c>
-      <c r="L37" s="4">
-        <f>AVERAGE(C37,F37,I37)</f>
+      <c r="L37">
+        <f t="shared" si="5"/>
         <v>1.681</v>
       </c>
-      <c r="M37" s="4">
-        <f>AVERAGE(D37,G37,J37)</f>
+      <c r="M37">
+        <f t="shared" si="6"/>
         <v>5949223.5034076674</v>
       </c>
-      <c r="N37" s="5">
-        <f t="shared" si="5"/>
+      <c r="N37" s="3">
+        <f t="shared" si="7"/>
         <v>2.2098532553306369</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="10">
+      <c r="B38" s="8">
         <v>16</v>
       </c>
       <c r="C38" s="2">
         <v>1.419</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>7047216.3495420003</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <f t="shared" si="2"/>
         <v>2.6384778012684991</v>
       </c>
       <c r="F38" s="2">
         <v>1.4470000000000001</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="1">
         <v>6910850.034554</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <f t="shared" si="3"/>
         <v>2.5577055977885279</v>
       </c>
       <c r="I38" s="2">
         <v>1.42</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="1">
         <v>7042253.5211270005</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="3">
         <f t="shared" si="4"/>
         <v>2.6049295774647887</v>
       </c>
-      <c r="L38" s="4">
-        <f>AVERAGE(C38,F38,I38)</f>
+      <c r="L38">
+        <f t="shared" si="5"/>
         <v>1.4286666666666665</v>
       </c>
-      <c r="M38" s="4">
-        <f>AVERAGE(D38,G38,J38)</f>
+      <c r="M38">
+        <f t="shared" si="6"/>
         <v>7000106.6350743333</v>
       </c>
-      <c r="N38" s="5">
-        <f t="shared" si="5"/>
+      <c r="N38" s="3">
+        <f t="shared" si="7"/>
         <v>2.6003709921739389</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
+      <c r="B39" s="8">
         <v>28</v>
       </c>
       <c r="C39" s="2">
         <v>1.359</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>7358351.7292130003</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <f t="shared" si="2"/>
         <v>2.7549668874172188</v>
       </c>
       <c r="F39" s="2">
         <v>1.331</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="1">
         <v>7513148.0090159997</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <f t="shared" si="3"/>
         <v>2.7806160781367395</v>
       </c>
       <c r="I39" s="2">
         <v>1.3160000000000001</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="1">
         <v>7598784.1945289997</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="3">
         <f t="shared" si="4"/>
         <v>2.8107902735562309</v>
       </c>
-      <c r="L39" s="4">
-        <f>AVERAGE(C39,F39,I39)</f>
+      <c r="L39">
+        <f t="shared" si="5"/>
         <v>1.3353333333333335</v>
       </c>
-      <c r="M39" s="4">
-        <f>AVERAGE(D39,G39,J39)</f>
+      <c r="M39">
+        <f t="shared" si="6"/>
         <v>7490094.6442526663</v>
       </c>
-      <c r="N39" s="5">
-        <f t="shared" si="5"/>
+      <c r="N39" s="3">
+        <f t="shared" si="7"/>
         <v>2.7821244130367297</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
+      <c r="B40" s="8">
         <v>42</v>
       </c>
       <c r="C40" s="2">
         <v>1.3240000000000001</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>7552870.0906339996</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <f t="shared" si="2"/>
         <v>2.8277945619335347</v>
       </c>
       <c r="F40" s="2">
         <v>1.29</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="1">
         <v>7751937.9844960002</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="3">
         <f t="shared" si="3"/>
         <v>2.8689922480620154</v>
       </c>
       <c r="I40" s="2">
         <v>1.304</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="1">
         <v>7668711.6564419996</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="3">
         <f t="shared" si="4"/>
         <v>2.8366564417177913</v>
       </c>
-      <c r="L40" s="4">
-        <f>AVERAGE(C40,F40,I40)</f>
+      <c r="L40">
+        <f t="shared" si="5"/>
         <v>1.306</v>
       </c>
-      <c r="M40" s="4">
-        <f>AVERAGE(D40,G40,J40)</f>
+      <c r="M40">
+        <f t="shared" si="6"/>
         <v>7657839.9105240004</v>
       </c>
-      <c r="N40" s="5">
-        <f t="shared" si="5"/>
+      <c r="N40" s="3">
+        <f t="shared" si="7"/>
         <v>2.8444810839044474</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="10">
+      <c r="B41" s="8">
         <v>56</v>
       </c>
       <c r="C41" s="2">
         <v>1.915</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>5221932.114883</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <f t="shared" si="2"/>
         <v>1.9550913838120105</v>
       </c>
       <c r="F41" s="2">
         <v>1.8360000000000001</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="1">
         <v>5446623.0936820004</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="3">
         <f t="shared" si="3"/>
         <v>2.0157952069716774</v>
       </c>
       <c r="I41" s="2">
         <v>4.4160000000000004</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="1">
         <v>2264492.7536229999</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="3">
         <f t="shared" si="4"/>
         <v>0.83763586956521729</v>
       </c>
-      <c r="L41" s="4">
-        <f>AVERAGE(C41,F41,I41)</f>
+      <c r="L41">
+        <f t="shared" si="5"/>
         <v>2.7223333333333337</v>
       </c>
-      <c r="M41" s="4">
-        <f>AVERAGE(D41,G41,J41)</f>
+      <c r="M41">
+        <f t="shared" si="6"/>
         <v>4311015.987396</v>
       </c>
-      <c r="N41" s="5">
-        <f t="shared" si="5"/>
+      <c r="N41" s="3">
+        <f t="shared" si="7"/>
         <v>1.6028408201163018</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="10">
+      <c r="B42" s="8">
         <v>72</v>
       </c>
       <c r="C42" s="2">
         <v>5.335</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>1874414.2455480001</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="3">
         <f t="shared" si="2"/>
         <v>0.70178069353327088</v>
       </c>
       <c r="F42" s="2">
         <v>1.9930000000000001</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="1">
         <v>5017561.4651279999</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="3">
         <f t="shared" si="3"/>
         <v>1.8569994982438534</v>
       </c>
       <c r="I42" s="2">
         <v>8.6</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="1">
         <v>1162790.6976739999</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="3">
         <f t="shared" si="4"/>
         <v>0.43011627906976746</v>
       </c>
-      <c r="L42" s="4">
-        <f>AVERAGE(C42,F42,I42)</f>
+      <c r="L42">
+        <f t="shared" si="5"/>
         <v>5.3093333333333339</v>
       </c>
-      <c r="M42" s="4">
-        <f>AVERAGE(D42,G42,J42)</f>
+      <c r="M42">
+        <f t="shared" si="6"/>
         <v>2684922.1361166663</v>
       </c>
-      <c r="N42" s="5">
-        <f t="shared" si="5"/>
+      <c r="N42" s="3">
+        <f t="shared" si="7"/>
         <v>0.9962988236156306</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>96</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="4">
         <v>35.875999999999998</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="5">
         <v>278737.87490200001</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <f t="shared" si="2"/>
         <v>0.1043594603634742</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="4">
         <v>10.127000000000001</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="5">
         <v>987459.26730499999</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="6">
         <f t="shared" si="3"/>
         <v>0.36545867482966327</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="4">
         <v>10.798</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="5">
         <v>926097.42544899997</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="6">
         <f t="shared" si="4"/>
         <v>0.34256343767364328</v>
       </c>
-      <c r="L43" s="7">
-        <f>AVERAGE(C43,F43,I43)</f>
+      <c r="L43" s="5">
+        <f t="shared" si="5"/>
         <v>18.933666666666667</v>
       </c>
-      <c r="M43" s="7">
-        <f>AVERAGE(D43,G43,J43)</f>
+      <c r="M43" s="5">
+        <f t="shared" si="6"/>
         <v>730764.85588533338</v>
       </c>
-      <c r="N43" s="8">
-        <f t="shared" si="5"/>
+      <c r="N43" s="6">
+        <f t="shared" si="7"/>
         <v>0.27079385762226021</v>
       </c>
     </row>
